--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4410876132930514</v>
+        <v>0.486404833836858</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07848094802186995</v>
+        <v>0.08969003406408306</v>
       </c>
       <c r="J2" t="n">
-        <v>1031.895230711275</v>
+        <v>1191.06727247305</v>
       </c>
       <c r="K2" t="n">
-        <v>1483577.106238692</v>
+        <v>1989715.924234803</v>
       </c>
       <c r="L2" t="n">
-        <v>1218.021800395499</v>
+        <v>1410.572906387615</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7226550350541533</v>
+        <v>0.6280357179020059</v>
       </c>
     </row>
   </sheetData>
